--- a/工作计划/2022/工作计划202202.xlsx
+++ b/工作计划/2022/工作计划202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="0207第一周" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>日期</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>星期二</t>
+  </si>
+  <si>
+    <t>test-server: ipa包扫描下载</t>
   </si>
   <si>
     <t>星期三</t>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1167,7 +1170,9 @@
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13"/>
     </row>
@@ -1176,7 +1181,7 @@
         <v>44601</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -1187,7 +1192,7 @@
         <v>44602</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1198,7 +1203,7 @@
         <v>44603</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>

--- a/工作计划/2022/工作计划202202.xlsx
+++ b/工作计划/2022/工作计划202202.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1142,7 +1142,9 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.8" spans="1:5">
@@ -1151,7 +1153,9 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.8" spans="1:5">
@@ -1173,7 +1177,9 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
@@ -1183,7 +1189,9 @@
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="13"/>
     </row>

--- a/工作计划/2022/工作计划202202.xlsx
+++ b/工作计划/2022/工作计划202202.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800"/>
+    <workbookView windowWidth="28800" windowHeight="11560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0207第一周" sheetId="1" r:id="rId1"/>
+    <sheet name="0214第二周" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>星期五</t>
+  </si>
+  <si>
+    <t>appium第一期：appium入门（JS）</t>
+  </si>
+  <si>
+    <t>Alcohol订单业务了解：（如何下单）</t>
+  </si>
+  <si>
+    <t>Alcohol订单业务了解：（推进订单）</t>
+  </si>
+  <si>
+    <t>appium第一期：appium入门（JAVA）</t>
   </si>
 </sst>
 </file>
@@ -63,11 +76,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,14 +106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -110,14 +115,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,110 +138,117 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,91 +259,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,90 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +505,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,39 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,150 +578,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,6 +771,15 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,16 +792,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1145,33 +1158,35 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.8" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.8" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="14.8" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>44600</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1180,45 +1195,55 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>44601</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>44602</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>44603</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1228,4 +1253,131 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.203125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.2" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.8" spans="1:5">
+      <c r="A2" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="14.8" spans="1:5">
+      <c r="A3" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="14.8" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="14.8" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="14.8" spans="1:5">
+      <c r="A6" s="6">
+        <v>44601</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="14.8" spans="1:5">
+      <c r="A7" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="14.8" spans="1:5">
+      <c r="A8" s="6">
+        <v>44603</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作计划/2022/工作计划202202.xlsx
+++ b/工作计划/2022/工作计划202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560" activeTab="1"/>
+    <workbookView windowHeight="15160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0207第一周" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +770,24 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,35 +1176,35 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="14.8" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" ht="14.8" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="14.8" spans="1:5">
-      <c r="A5" s="6">
+      <c r="A5" s="12">
         <v>44600</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1195,13 +1213,13 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="12">
         <v>44601</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1210,13 +1228,13 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="12">
         <v>44602</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1225,13 +1243,13 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="A8" s="12">
         <v>44603</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1240,10 +1258,10 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1261,7 +1279,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1302,7 +1320,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="14.8" spans="1:5">
       <c r="A3" s="6">
@@ -1317,66 +1335,76 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" ht="14.8" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="14.8" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="12">
         <v>44601</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="12">
         <v>44602</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="A8" s="12">
         <v>44603</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
